--- a/zerodha_orders_template_OCO.xlsx
+++ b/zerodha_orders_template_OCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D08A5-4A3C-4D21-9F35-6557E8C15654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427E8C1-7E39-4B60-A111-9BA25DA018DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/zerodha_orders_template_OCO.xlsx
+++ b/zerodha_orders_template_OCO.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427E8C1-7E39-4B60-A111-9BA25DA018DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FE0FE5-8C79-490A-BE5F-E76028CB568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="32">
   <si>
     <t>symbol</t>
   </si>
@@ -88,9 +91,6 @@
     <t>regular</t>
   </si>
   <si>
-    <t>sample-gtt-oco</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -103,16 +103,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SENSEX25D1184600CE</t>
-  </si>
-  <si>
     <t>BFO</t>
   </si>
   <si>
     <t>NRML</t>
-  </si>
-  <si>
-    <t>sample-gtt-single</t>
   </si>
   <si>
     <t>SINGLE</t>
@@ -121,7 +115,10 @@
     <t>SELL</t>
   </si>
   <si>
-    <t>sample-regular</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -200,6 +197,419 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Orders"/>
+      <sheetName val="SENSEX"/>
+      <sheetName val="NIFTY"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="D3">
+            <v>338</v>
+          </cell>
+          <cell r="E3">
+            <v>418</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>SENSEX25D1884600CE</v>
+          </cell>
+          <cell r="X3">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>338</v>
+          </cell>
+          <cell r="E4">
+            <v>418</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>SENSEX25D1884700CE</v>
+          </cell>
+          <cell r="X4">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>338</v>
+          </cell>
+          <cell r="E5">
+            <v>418</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>SENSEX25D1884800CE</v>
+          </cell>
+          <cell r="X5">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>338</v>
+          </cell>
+          <cell r="E6">
+            <v>418</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>SENSEX25D1884900CE</v>
+          </cell>
+          <cell r="X6">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>288</v>
+          </cell>
+          <cell r="E7">
+            <v>388</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>SENSEX25D1885000CE</v>
+          </cell>
+          <cell r="X7">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>168</v>
+          </cell>
+          <cell r="E8">
+            <v>218</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>SENSEX25D1885300CE</v>
+          </cell>
+          <cell r="X8">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>68</v>
+          </cell>
+          <cell r="E9">
+            <v>138</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>SENSEX25D1885600CE</v>
+          </cell>
+          <cell r="X9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>168</v>
+          </cell>
+          <cell r="E10">
+            <v>218</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>SENSEX25D1885800CE</v>
+          </cell>
+          <cell r="X10">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>338</v>
+          </cell>
+          <cell r="E11">
+            <v>418</v>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>SENSEX25D1885000PE</v>
+          </cell>
+          <cell r="X11">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>338</v>
+          </cell>
+          <cell r="E12">
+            <v>418</v>
+          </cell>
+          <cell r="Q12" t="str">
+            <v>SENSEX25D1884900PE</v>
+          </cell>
+          <cell r="X12">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>338</v>
+          </cell>
+          <cell r="E13">
+            <v>418</v>
+          </cell>
+          <cell r="Q13" t="str">
+            <v>SENSEX25D1884800PE</v>
+          </cell>
+          <cell r="X13">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>338</v>
+          </cell>
+          <cell r="E14">
+            <v>418</v>
+          </cell>
+          <cell r="Q14" t="str">
+            <v>SENSEX25D1884700PE</v>
+          </cell>
+          <cell r="X14">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>288</v>
+          </cell>
+          <cell r="E15">
+            <v>388</v>
+          </cell>
+          <cell r="Q15" t="str">
+            <v>SENSEX25D1884600PE</v>
+          </cell>
+          <cell r="X15">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>168</v>
+          </cell>
+          <cell r="E16">
+            <v>218</v>
+          </cell>
+          <cell r="Q16" t="str">
+            <v>SENSEX25D1884300PE</v>
+          </cell>
+          <cell r="X16">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>68</v>
+          </cell>
+          <cell r="E17">
+            <v>138</v>
+          </cell>
+          <cell r="Q17" t="str">
+            <v>SENSEX25D1884000PE</v>
+          </cell>
+          <cell r="X17">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>168</v>
+          </cell>
+          <cell r="E18">
+            <v>218</v>
+          </cell>
+          <cell r="Q18" t="str">
+            <v>SENSEX25D1883800PE</v>
+          </cell>
+          <cell r="X18">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>338</v>
+          </cell>
+          <cell r="E19">
+            <v>418</v>
+          </cell>
+          <cell r="Q19" t="str">
+            <v>SENSEX25D1883800CE</v>
+          </cell>
+          <cell r="X19">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>338</v>
+          </cell>
+          <cell r="E20">
+            <v>418</v>
+          </cell>
+          <cell r="Q20" t="str">
+            <v>SENSEX25D1883900CE</v>
+          </cell>
+          <cell r="X20">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>288</v>
+          </cell>
+          <cell r="E21">
+            <v>388</v>
+          </cell>
+          <cell r="Q21" t="str">
+            <v>SENSEX25D1884000CE</v>
+          </cell>
+          <cell r="X21">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>168</v>
+          </cell>
+          <cell r="E22">
+            <v>218</v>
+          </cell>
+          <cell r="Q22" t="str">
+            <v>SENSEX25D1884300CE</v>
+          </cell>
+          <cell r="X22">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>68</v>
+          </cell>
+          <cell r="E23">
+            <v>138</v>
+          </cell>
+          <cell r="Q23" t="str">
+            <v>SENSEX25D1884600CE</v>
+          </cell>
+          <cell r="X23">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>168</v>
+          </cell>
+          <cell r="E24">
+            <v>218</v>
+          </cell>
+          <cell r="Q24" t="str">
+            <v>SENSEX25D1884800CE</v>
+          </cell>
+          <cell r="X24">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>338</v>
+          </cell>
+          <cell r="E25">
+            <v>418</v>
+          </cell>
+          <cell r="Q25" t="str">
+            <v>SENSEX25D1885800PE</v>
+          </cell>
+          <cell r="X25">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>338</v>
+          </cell>
+          <cell r="E26">
+            <v>418</v>
+          </cell>
+          <cell r="Q26" t="str">
+            <v>SENSEX25D1885700PE</v>
+          </cell>
+          <cell r="X26">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>288</v>
+          </cell>
+          <cell r="E27">
+            <v>388</v>
+          </cell>
+          <cell r="Q27" t="str">
+            <v>SENSEX25D1885600PE</v>
+          </cell>
+          <cell r="X27">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>168</v>
+          </cell>
+          <cell r="E28">
+            <v>218</v>
+          </cell>
+          <cell r="Q28" t="str">
+            <v>SENSEX25D1885300PE</v>
+          </cell>
+          <cell r="X28">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>68</v>
+          </cell>
+          <cell r="E29">
+            <v>138</v>
+          </cell>
+          <cell r="Q29" t="str">
+            <v>SENSEX25D1885000PE</v>
+          </cell>
+          <cell r="X29">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>168</v>
+          </cell>
+          <cell r="E30">
+            <v>218</v>
+          </cell>
+          <cell r="Q30" t="str">
+            <v>SENSEX25D1884800PE</v>
+          </cell>
+          <cell r="X30">
+            <v>110</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +910,7 @@
     <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -578,29 +988,28 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
+      <c r="A2" t="str">
+        <f>[1]SENSEX!Q3</f>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>339</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>339</v>
+        <f>[1]SENSEX!D3</f>
+        <v>338</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -609,83 +1018,86 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>339</v>
+        <f>G2-1</f>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
+      <c r="A3" t="str">
+        <f>[1]SENSEX!Q4</f>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <f>[1]SENSEX!D4</f>
+        <v>338</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3">
-        <v>229</v>
-      </c>
-      <c r="Q3">
-        <v>220</v>
-      </c>
-      <c r="R3">
-        <v>438</v>
-      </c>
-      <c r="S3">
-        <v>430</v>
+      <c r="O3">
+        <f t="shared" ref="O3:O29" si="0">G3-1</f>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4" t="str">
+        <f>[1]SENSEX!Q5</f>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>339</v>
+        <f>[1]SENSEX!D5</f>
+        <v>338</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -697,16 +1109,2658 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>[1]SENSEX!Q6</f>
+        <v>SENSEX25D1884900CE</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <f>[1]SENSEX!D6</f>
+        <v>338</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>[1]SENSEX!Q7</f>
+        <v>SENSEX25D1885000CE</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <f>[1]SENSEX!D7</f>
+        <v>288</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>[1]SENSEX!Q8</f>
+        <v>SENSEX25D1885300CE</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <f>[1]SENSEX!D8</f>
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>[1]SENSEX!Q9</f>
+        <v>SENSEX25D1885600CE</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <f>[1]SENSEX!D9</f>
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>[1]SENSEX!Q10</f>
+        <v>SENSEX25D1885800CE</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <f>[1]SENSEX!D10</f>
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>[1]SENSEX!Q11</f>
+        <v>SENSEX25D1885000PE</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <f>[1]SENSEX!D11</f>
+        <v>338</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>[1]SENSEX!Q12</f>
+        <v>SENSEX25D1884900PE</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <f>[1]SENSEX!D12</f>
+        <v>338</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>[1]SENSEX!Q13</f>
+        <v>SENSEX25D1884800PE</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <f>[1]SENSEX!D13</f>
+        <v>338</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>[1]SENSEX!Q14</f>
+        <v>SENSEX25D1884700PE</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <f>[1]SENSEX!D14</f>
+        <v>338</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>[1]SENSEX!Q15</f>
+        <v>SENSEX25D1884600PE</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <f>[1]SENSEX!D15</f>
+        <v>288</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>[1]SENSEX!Q16</f>
+        <v>SENSEX25D1884300PE</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <f>[1]SENSEX!D16</f>
+        <v>168</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>[1]SENSEX!Q17</f>
+        <v>SENSEX25D1884000PE</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <f>[1]SENSEX!D17</f>
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>[1]SENSEX!Q18</f>
+        <v>SENSEX25D1883800PE</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <f>[1]SENSEX!D18</f>
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>[1]SENSEX!Q19</f>
+        <v>SENSEX25D1883800CE</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <f>[1]SENSEX!D19</f>
+        <v>338</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>[1]SENSEX!Q20</f>
+        <v>SENSEX25D1883900CE</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <f>[1]SENSEX!D20</f>
+        <v>338</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>[1]SENSEX!Q21</f>
+        <v>SENSEX25D1884000CE</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <f>[1]SENSEX!D21</f>
+        <v>288</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>[1]SENSEX!Q22</f>
+        <v>SENSEX25D1884300CE</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <f>[1]SENSEX!D22</f>
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>[1]SENSEX!Q23</f>
+        <v>SENSEX25D1884600CE</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <f>[1]SENSEX!D23</f>
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>[1]SENSEX!Q24</f>
+        <v>SENSEX25D1884800CE</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <f>[1]SENSEX!D24</f>
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>[1]SENSEX!Q25</f>
+        <v>SENSEX25D1885800PE</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <f>[1]SENSEX!D25</f>
+        <v>338</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>[1]SENSEX!Q26</f>
+        <v>SENSEX25D1885700PE</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <f>[1]SENSEX!D26</f>
+        <v>338</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>[1]SENSEX!Q27</f>
+        <v>SENSEX25D1885600PE</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <f>[1]SENSEX!D27</f>
+        <v>288</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>[1]SENSEX!Q28</f>
+        <v>SENSEX25D1885300PE</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <f>[1]SENSEX!D28</f>
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>[1]SENSEX!Q29</f>
+        <v>SENSEX25D1885000PE</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <f>[1]SENSEX!D29</f>
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>[1]SENSEX!Q30</f>
+        <v>SENSEX25D1884800PE</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <f>[1]SENSEX!D30</f>
+        <v>168</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>[1]SENSEX!Q3</f>
+        <v>SENSEX25D1884600CE</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P30">
+        <f>[1]SENSEX!X3</f>
+        <v>225</v>
+      </c>
+      <c r="Q30">
+        <f>P30-2</f>
+        <v>223</v>
+      </c>
+      <c r="R30">
+        <f>[1]SENSEX!E3</f>
+        <v>418</v>
+      </c>
+      <c r="S30">
+        <f>R30-3</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>[1]SENSEX!Q4</f>
+        <v>SENSEX25D1884700CE</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
         <v>31</v>
       </c>
-      <c r="O4">
-        <v>339</v>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <f>[1]SENSEX!X4</f>
+        <v>225</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q57" si="1">P31-2</f>
+        <v>223</v>
+      </c>
+      <c r="R31">
+        <f>[1]SENSEX!E4</f>
+        <v>418</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31:S57" si="2">R31-3</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>[1]SENSEX!Q5</f>
+        <v>SENSEX25D1884800CE</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <f>[1]SENSEX!X5</f>
+        <v>225</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R32">
+        <f>[1]SENSEX!E5</f>
+        <v>418</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>[1]SENSEX!Q6</f>
+        <v>SENSEX25D1884900CE</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33">
+        <f>[1]SENSEX!X6</f>
+        <v>225</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R33">
+        <f>[1]SENSEX!E6</f>
+        <v>418</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>[1]SENSEX!Q7</f>
+        <v>SENSEX25D1885000CE</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34">
+        <f>[1]SENSEX!X7</f>
+        <v>225</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R34">
+        <f>[1]SENSEX!E7</f>
+        <v>388</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>[1]SENSEX!Q8</f>
+        <v>SENSEX25D1885300CE</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35">
+        <f>[1]SENSEX!X8</f>
+        <v>110</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R35">
+        <f>[1]SENSEX!E8</f>
+        <v>218</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>[1]SENSEX!Q9</f>
+        <v>SENSEX25D1885600CE</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36">
+        <f>[1]SENSEX!X9</f>
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <f>[1]SENSEX!E9</f>
+        <v>138</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>[1]SENSEX!Q10</f>
+        <v>SENSEX25D1885800CE</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37">
+        <f>[1]SENSEX!X10</f>
+        <v>110</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R37">
+        <f>[1]SENSEX!E10</f>
+        <v>218</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>[1]SENSEX!Q11</f>
+        <v>SENSEX25D1885000PE</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38">
+        <f>[1]SENSEX!X11</f>
+        <v>225</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R38">
+        <f>[1]SENSEX!E11</f>
+        <v>418</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>[1]SENSEX!Q12</f>
+        <v>SENSEX25D1884900PE</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39">
+        <f>[1]SENSEX!X12</f>
+        <v>225</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R39">
+        <f>[1]SENSEX!E12</f>
+        <v>418</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>[1]SENSEX!Q13</f>
+        <v>SENSEX25D1884800PE</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40">
+        <f>[1]SENSEX!X13</f>
+        <v>225</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R40">
+        <f>[1]SENSEX!E13</f>
+        <v>418</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>[1]SENSEX!Q14</f>
+        <v>SENSEX25D1884700PE</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41">
+        <f>[1]SENSEX!X14</f>
+        <v>225</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R41">
+        <f>[1]SENSEX!E14</f>
+        <v>418</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>[1]SENSEX!Q15</f>
+        <v>SENSEX25D1884600PE</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42">
+        <f>[1]SENSEX!X15</f>
+        <v>225</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R42">
+        <f>[1]SENSEX!E15</f>
+        <v>388</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>[1]SENSEX!Q16</f>
+        <v>SENSEX25D1884300PE</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43">
+        <f>[1]SENSEX!X16</f>
+        <v>110</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R43">
+        <f>[1]SENSEX!E16</f>
+        <v>218</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>[1]SENSEX!Q17</f>
+        <v>SENSEX25D1884000PE</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44">
+        <f>[1]SENSEX!X17</f>
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <f>[1]SENSEX!E17</f>
+        <v>138</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>[1]SENSEX!Q18</f>
+        <v>SENSEX25D1883800PE</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45">
+        <f>[1]SENSEX!X18</f>
+        <v>110</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R45">
+        <f>[1]SENSEX!E18</f>
+        <v>218</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>[1]SENSEX!Q19</f>
+        <v>SENSEX25D1883800CE</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46">
+        <f>[1]SENSEX!X19</f>
+        <v>225</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R46">
+        <f>[1]SENSEX!E19</f>
+        <v>418</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>[1]SENSEX!Q20</f>
+        <v>SENSEX25D1883900CE</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47">
+        <f>[1]SENSEX!X20</f>
+        <v>225</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R47">
+        <f>[1]SENSEX!E20</f>
+        <v>418</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>[1]SENSEX!Q21</f>
+        <v>SENSEX25D1884000CE</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48">
+        <f>[1]SENSEX!X21</f>
+        <v>225</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R48">
+        <f>[1]SENSEX!E21</f>
+        <v>388</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>[1]SENSEX!Q22</f>
+        <v>SENSEX25D1884300CE</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49">
+        <f>[1]SENSEX!X22</f>
+        <v>110</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R49">
+        <f>[1]SENSEX!E22</f>
+        <v>218</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>[1]SENSEX!Q23</f>
+        <v>SENSEX25D1884600CE</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50">
+        <f>[1]SENSEX!X23</f>
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <f>[1]SENSEX!E23</f>
+        <v>138</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>[1]SENSEX!Q24</f>
+        <v>SENSEX25D1884800CE</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51">
+        <f>[1]SENSEX!X24</f>
+        <v>110</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R51">
+        <f>[1]SENSEX!E24</f>
+        <v>218</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>[1]SENSEX!Q25</f>
+        <v>SENSEX25D1885800PE</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52">
+        <f>[1]SENSEX!X25</f>
+        <v>225</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R52">
+        <f>[1]SENSEX!E25</f>
+        <v>418</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>[1]SENSEX!Q26</f>
+        <v>SENSEX25D1885700PE</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53">
+        <f>[1]SENSEX!X26</f>
+        <v>225</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R53">
+        <f>[1]SENSEX!E26</f>
+        <v>418</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>[1]SENSEX!Q27</f>
+        <v>SENSEX25D1885600PE</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54">
+        <f>[1]SENSEX!X27</f>
+        <v>225</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="R54">
+        <f>[1]SENSEX!E27</f>
+        <v>388</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>[1]SENSEX!Q28</f>
+        <v>SENSEX25D1885300PE</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55">
+        <f>[1]SENSEX!X28</f>
+        <v>110</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R55">
+        <f>[1]SENSEX!E28</f>
+        <v>218</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>[1]SENSEX!Q29</f>
+        <v>SENSEX25D1885000PE</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56">
+        <f>[1]SENSEX!X29</f>
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <f>[1]SENSEX!E29</f>
+        <v>138</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>[1]SENSEX!Q30</f>
+        <v>SENSEX25D1884800PE</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57">
+        <f>[1]SENSEX!X30</f>
+        <v>110</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R57">
+        <f>[1]SENSEX!E30</f>
+        <v>218</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zerodha_orders_template_OCO.xlsx
+++ b/zerodha_orders_template_OCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D38AB6-2EBB-4E28-AC80-8801C8A3A40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEF6F33-10D3-462C-852A-B949FD98120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S253"/>
+  <dimension ref="A1:W254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="L185" sqref="L185"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,7 +590,7 @@
     <col min="19" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -689,8 +689,12 @@
       <c r="O2">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U2">
+        <f>G2*D2</f>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -730,8 +734,12 @@
       <c r="O3">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0">G3*D3</f>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -771,8 +779,12 @@
       <c r="O4">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -812,8 +824,12 @@
       <c r="O5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -853,8 +869,12 @@
       <c r="O6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -894,8 +914,12 @@
       <c r="O7">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -935,8 +959,12 @@
       <c r="O8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -976,8 +1004,12 @@
       <c r="O9">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1017,8 +1049,12 @@
       <c r="O10">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1058,8 +1094,12 @@
       <c r="O11">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1099,8 +1139,12 @@
       <c r="O12">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1140,8 +1184,12 @@
       <c r="O13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1181,8 +1229,12 @@
       <c r="O14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1222,8 +1274,12 @@
       <c r="O15">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1263,8 +1319,12 @@
       <c r="O16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1304,8 +1364,12 @@
       <c r="O17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1345,8 +1409,12 @@
       <c r="O18">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1386,8 +1454,12 @@
       <c r="O19">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1427,8 +1499,12 @@
       <c r="O20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1468,8 +1544,12 @@
       <c r="O21">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1509,8 +1589,12 @@
       <c r="O22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1550,8 +1634,12 @@
       <c r="O23">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1591,8 +1679,12 @@
       <c r="O24">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1632,8 +1724,12 @@
       <c r="O25">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1673,8 +1769,12 @@
       <c r="O26">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1714,8 +1814,12 @@
       <c r="O27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1755,8 +1859,12 @@
       <c r="O28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1796,8 +1904,12 @@
       <c r="O29">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1846,8 +1958,16 @@
       <c r="S30">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f>S30*D30</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1896,8 +2016,16 @@
       <c r="S31">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ref="W31:W94" si="1">S31*D31</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1946,8 +2074,16 @@
       <c r="S32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1996,8 +2132,16 @@
       <c r="S33">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2046,8 +2190,16 @@
       <c r="S34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2248,16 @@
       <c r="S35">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2146,8 +2306,16 @@
       <c r="S36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2196,8 +2364,16 @@
       <c r="S37">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2246,8 +2422,16 @@
       <c r="S38">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2296,8 +2480,16 @@
       <c r="S39">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2346,8 +2538,16 @@
       <c r="S40">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2396,8 +2596,16 @@
       <c r="S41">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2446,8 +2654,16 @@
       <c r="S42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2496,8 +2712,16 @@
       <c r="S43">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2546,8 +2770,16 @@
       <c r="S44">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2596,8 +2828,16 @@
       <c r="S45">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2646,8 +2886,16 @@
       <c r="S46">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2696,8 +2944,16 @@
       <c r="S47">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="1"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2746,8 +3002,16 @@
       <c r="S48">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +3060,16 @@
       <c r="S49">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2846,8 +3118,16 @@
       <c r="S50">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2896,8 +3176,16 @@
       <c r="S51">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2946,8 +3234,16 @@
       <c r="S52">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2996,8 +3292,16 @@
       <c r="S53">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="1"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3046,8 +3350,16 @@
       <c r="S54">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3096,8 +3408,16 @@
       <c r="S55">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -3146,8 +3466,16 @@
       <c r="S56">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -3196,8 +3524,16 @@
       <c r="S57">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -3246,8 +3582,16 @@
       <c r="S58">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -3296,8 +3640,16 @@
       <c r="S59">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3346,8 +3698,16 @@
       <c r="S60">
         <v>85</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3396,8 +3756,16 @@
       <c r="S61">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3814,16 @@
       <c r="S62">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -3496,8 +3872,16 @@
       <c r="S63">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -3546,8 +3930,16 @@
       <c r="S64">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3596,8 +3988,16 @@
       <c r="S65">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3646,8 +4046,16 @@
       <c r="S66">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -3696,8 +4104,16 @@
       <c r="S67">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="2">G67*D67</f>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3746,8 +4162,16 @@
       <c r="S68">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -3796,8 +4220,16 @@
       <c r="S69">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -3846,8 +4278,16 @@
       <c r="S70">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -3896,8 +4336,16 @@
       <c r="S71">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -3946,8 +4394,16 @@
       <c r="S72">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -3996,8 +4452,16 @@
       <c r="S73">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -4046,8 +4510,16 @@
       <c r="S74">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -4096,8 +4568,16 @@
       <c r="S75">
         <v>65</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -4146,8 +4626,16 @@
       <c r="S76">
         <v>65</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -4196,8 +4684,16 @@
       <c r="S77">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -4246,8 +4742,16 @@
       <c r="S78">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -4296,8 +4800,16 @@
       <c r="S79">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -4346,8 +4858,16 @@
       <c r="S80">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -4396,8 +4916,16 @@
       <c r="S81">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -4446,8 +4974,16 @@
       <c r="S82">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -4496,8 +5032,16 @@
       <c r="S83">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -4546,8 +5090,16 @@
       <c r="S84">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -4596,8 +5148,16 @@
       <c r="S85">
         <v>65</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -4637,8 +5197,16 @@
       <c r="O86">
         <v>138</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -4678,8 +5246,16 @@
       <c r="O87">
         <v>138</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -4719,8 +5295,16 @@
       <c r="O88">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -4760,8 +5344,16 @@
       <c r="O89">
         <v>128</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>7680</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -4801,8 +5393,16 @@
       <c r="O90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>5280</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -4842,8 +5442,16 @@
       <c r="O91">
         <v>68</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -4883,8 +5491,16 @@
       <c r="O92">
         <v>38</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -4924,8 +5540,16 @@
       <c r="O93">
         <v>68</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -4965,8 +5589,16 @@
       <c r="O94">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -5006,8 +5638,16 @@
       <c r="O95">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W95">
+        <f t="shared" ref="W95:W158" si="3">S95*D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -5047,8 +5687,16 @@
       <c r="O96">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -5088,8 +5736,16 @@
       <c r="O97">
         <v>128</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>7680</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -5129,8 +5785,16 @@
       <c r="O98">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>5280</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>44</v>
       </c>
@@ -5170,8 +5834,16 @@
       <c r="O99">
         <v>68</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -5211,8 +5883,16 @@
       <c r="O100">
         <v>38</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -5252,8 +5932,16 @@
       <c r="O101">
         <v>68</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -5293,8 +5981,16 @@
       <c r="O102">
         <v>138</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U102">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -5334,8 +6030,16 @@
       <c r="O103">
         <v>128</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U103">
+        <f t="shared" si="2"/>
+        <v>7680</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -5375,8 +6079,16 @@
       <c r="O104">
         <v>88</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U104">
+        <f t="shared" si="2"/>
+        <v>5280</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>50</v>
       </c>
@@ -5416,8 +6128,16 @@
       <c r="O105">
         <v>68</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U105">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -5457,8 +6177,16 @@
       <c r="O106">
         <v>38</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U106">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -5498,8 +6226,16 @@
       <c r="O107">
         <v>68</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U107">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -5539,8 +6275,16 @@
       <c r="O108">
         <v>138</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U108">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -5580,8 +6324,16 @@
       <c r="O109">
         <v>128</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U109">
+        <f t="shared" si="2"/>
+        <v>7680</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>53</v>
       </c>
@@ -5621,8 +6373,16 @@
       <c r="O110">
         <v>88</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U110">
+        <f t="shared" si="2"/>
+        <v>5280</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -5662,8 +6422,16 @@
       <c r="O111">
         <v>68</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U111">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -5703,8 +6471,16 @@
       <c r="O112">
         <v>38</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U112">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -5744,8 +6520,16 @@
       <c r="O113">
         <v>68</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U113">
+        <f t="shared" si="2"/>
+        <v>4080</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -5794,8 +6578,16 @@
       <c r="S114">
         <v>235</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="3"/>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -5844,8 +6636,16 @@
       <c r="S115">
         <v>235</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -5894,8 +6694,16 @@
       <c r="S116">
         <v>235</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -5944,8 +6752,16 @@
       <c r="S117">
         <v>225</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -5994,8 +6810,16 @@
       <c r="S118">
         <v>165</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -6044,8 +6868,16 @@
       <c r="S119">
         <v>135</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -6094,8 +6926,16 @@
       <c r="S120">
         <v>65</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -6144,8 +6984,16 @@
       <c r="S121">
         <v>135</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -6194,8 +7042,16 @@
       <c r="S122">
         <v>235</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>40</v>
       </c>
@@ -6244,8 +7100,16 @@
       <c r="S123">
         <v>235</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -6294,8 +7158,16 @@
       <c r="S124">
         <v>235</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -6344,8 +7216,16 @@
       <c r="S125">
         <v>225</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -6394,8 +7274,16 @@
       <c r="S126">
         <v>165</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -6444,8 +7332,16 @@
       <c r="S127">
         <v>135</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -6494,8 +7390,16 @@
       <c r="S128">
         <v>65</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>46</v>
       </c>
@@ -6544,8 +7448,16 @@
       <c r="S129">
         <v>135</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -6594,8 +7506,16 @@
       <c r="S130">
         <v>235</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -6644,8 +7564,16 @@
       <c r="S131">
         <v>225</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U131">
+        <f t="shared" ref="U131:U194" si="4">G131*D131</f>
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -6694,8 +7622,16 @@
       <c r="S132">
         <v>165</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -6744,8 +7680,16 @@
       <c r="S133">
         <v>135</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -6794,8 +7738,16 @@
       <c r="S134">
         <v>65</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -6844,8 +7796,16 @@
       <c r="S135">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -6894,8 +7854,16 @@
       <c r="S136">
         <v>235</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>52</v>
       </c>
@@ -6944,8 +7912,16 @@
       <c r="S137">
         <v>225</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>53</v>
       </c>
@@ -6994,8 +7970,16 @@
       <c r="S138">
         <v>165</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>54</v>
       </c>
@@ -7044,8 +8028,16 @@
       <c r="S139">
         <v>135</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -7094,8 +8086,16 @@
       <c r="S140">
         <v>65</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -7144,8 +8144,16 @@
       <c r="S141">
         <v>135</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -7194,8 +8202,16 @@
       <c r="S142">
         <v>285</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -7244,8 +8260,16 @@
       <c r="S143">
         <v>285</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -7294,8 +8318,16 @@
       <c r="S144">
         <v>285</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -7344,8 +8376,16 @@
       <c r="S145">
         <v>265</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="3"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -7394,8 +8434,16 @@
       <c r="S146">
         <v>295</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="3"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -7444,8 +8492,16 @@
       <c r="S147">
         <v>165</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -7494,8 +8550,16 @@
       <c r="S148">
         <v>85</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -7544,8 +8608,16 @@
       <c r="S149">
         <v>165</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -7594,8 +8666,16 @@
       <c r="S150">
         <v>285</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>40</v>
       </c>
@@ -7644,8 +8724,16 @@
       <c r="S151">
         <v>285</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -7694,8 +8782,16 @@
       <c r="S152">
         <v>285</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -7744,8 +8840,16 @@
       <c r="S153">
         <v>265</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="3"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -7794,8 +8898,16 @@
       <c r="S154">
         <v>295</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="3"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>44</v>
       </c>
@@ -7844,8 +8956,16 @@
       <c r="S155">
         <v>165</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -7894,8 +9014,16 @@
       <c r="S156">
         <v>85</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -7944,8 +9072,16 @@
       <c r="S157">
         <v>165</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -7994,8 +9130,16 @@
       <c r="S158">
         <v>285</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -8044,8 +9188,16 @@
       <c r="S159">
         <v>265</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <f t="shared" ref="W159:W222" si="5">S159*D159</f>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>49</v>
       </c>
@@ -8094,8 +9246,16 @@
       <c r="S160">
         <v>295</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="5"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>50</v>
       </c>
@@ -8144,8 +9304,16 @@
       <c r="S161">
         <v>165</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -8194,8 +9362,16 @@
       <c r="S162">
         <v>85</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="5"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>33</v>
       </c>
@@ -8244,8 +9420,16 @@
       <c r="S163">
         <v>165</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -8294,8 +9478,16 @@
       <c r="S164">
         <v>285</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="5"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>52</v>
       </c>
@@ -8344,8 +9536,16 @@
       <c r="S165">
         <v>265</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="5"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -8394,8 +9594,16 @@
       <c r="S166">
         <v>295</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="5"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>54</v>
       </c>
@@ -8444,8 +9652,16 @@
       <c r="S167">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>39</v>
       </c>
@@ -8494,8 +9710,16 @@
       <c r="S168">
         <v>85</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <f t="shared" si="5"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -8544,8 +9768,16 @@
       <c r="S169">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -8585,8 +9817,16 @@
       <c r="O170">
         <v>338</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U170">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -8626,8 +9866,16 @@
       <c r="O171">
         <v>338</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U171">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>33</v>
       </c>
@@ -8667,8 +9915,16 @@
       <c r="O172">
         <v>338</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U172">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>34</v>
       </c>
@@ -8708,8 +9964,16 @@
       <c r="O173">
         <v>338</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U173">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -8749,8 +10013,16 @@
       <c r="O174">
         <v>288</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U174">
+        <f t="shared" si="4"/>
+        <v>17280</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>36</v>
       </c>
@@ -8790,8 +10062,16 @@
       <c r="O175">
         <v>168</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U175">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -8831,8 +10111,16 @@
       <c r="O176">
         <v>68</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U176">
+        <f t="shared" si="4"/>
+        <v>4080</v>
+      </c>
+      <c r="W176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -8872,8 +10160,16 @@
       <c r="O177">
         <v>168</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U177">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="W177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -8913,8 +10209,16 @@
       <c r="O178">
         <v>338</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U178">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>40</v>
       </c>
@@ -8954,8 +10258,16 @@
       <c r="O179">
         <v>338</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U179">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W179">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>41</v>
       </c>
@@ -8995,8 +10307,16 @@
       <c r="O180">
         <v>338</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U180">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -9036,8 +10356,16 @@
       <c r="O181">
         <v>338</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U181">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -9077,8 +10405,16 @@
       <c r="O182">
         <v>288</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U182">
+        <f t="shared" si="4"/>
+        <v>17280</v>
+      </c>
+      <c r="W182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>44</v>
       </c>
@@ -9118,8 +10454,16 @@
       <c r="O183">
         <v>168</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U183">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="W183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -9159,8 +10503,16 @@
       <c r="O184">
         <v>68</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U184">
+        <f t="shared" si="4"/>
+        <v>4080</v>
+      </c>
+      <c r="W184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>46</v>
       </c>
@@ -9200,8 +10552,16 @@
       <c r="O185">
         <v>168</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U185">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="W185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>47</v>
       </c>
@@ -9241,8 +10601,16 @@
       <c r="O186">
         <v>338</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U186">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W186">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -9282,8 +10650,16 @@
       <c r="O187">
         <v>338</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U187">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -9323,8 +10699,16 @@
       <c r="O188">
         <v>288</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U188">
+        <f t="shared" si="4"/>
+        <v>17280</v>
+      </c>
+      <c r="W188">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -9364,8 +10748,16 @@
       <c r="O189">
         <v>168</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U189">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="W189">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -9405,8 +10797,16 @@
       <c r="O190">
         <v>68</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U190">
+        <f t="shared" si="4"/>
+        <v>4080</v>
+      </c>
+      <c r="W190">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -9446,8 +10846,16 @@
       <c r="O191">
         <v>168</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="U191">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="W191">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>51</v>
       </c>
@@ -9487,8 +10895,16 @@
       <c r="O192">
         <v>338</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U192">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W192">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>52</v>
       </c>
@@ -9528,8 +10944,16 @@
       <c r="O193">
         <v>338</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U193">
+        <f t="shared" si="4"/>
+        <v>20280</v>
+      </c>
+      <c r="W193">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -9569,8 +10993,16 @@
       <c r="O194">
         <v>288</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U194">
+        <f t="shared" si="4"/>
+        <v>17280</v>
+      </c>
+      <c r="W194">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>54</v>
       </c>
@@ -9610,8 +11042,16 @@
       <c r="O195">
         <v>168</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U195">
+        <f t="shared" ref="U195:U253" si="6">G195*D195</f>
+        <v>10080</v>
+      </c>
+      <c r="W195">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -9651,8 +11091,16 @@
       <c r="O196">
         <v>68</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U196">
+        <f t="shared" si="6"/>
+        <v>4080</v>
+      </c>
+      <c r="W196">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>41</v>
       </c>
@@ -9692,8 +11140,16 @@
       <c r="O197">
         <v>168</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U197">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="W197">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>31</v>
       </c>
@@ -9742,8 +11198,16 @@
       <c r="S198">
         <v>415</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <f t="shared" si="5"/>
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -9792,8 +11256,16 @@
       <c r="S199">
         <v>415</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -9842,8 +11314,16 @@
       <c r="S200">
         <v>415</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -9892,8 +11372,16 @@
       <c r="S201">
         <v>415</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U201">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -9942,8 +11430,16 @@
       <c r="S202">
         <v>385</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U202">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <f t="shared" si="5"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -9992,8 +11488,16 @@
       <c r="S203">
         <v>215</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U203">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -10042,8 +11546,16 @@
       <c r="S204">
         <v>135</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>38</v>
       </c>
@@ -10092,8 +11604,16 @@
       <c r="S205">
         <v>215</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>39</v>
       </c>
@@ -10142,8 +11662,16 @@
       <c r="S206">
         <v>415</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U206">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -10192,8 +11720,16 @@
       <c r="S207">
         <v>415</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U207">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -10242,8 +11778,16 @@
       <c r="S208">
         <v>415</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U208">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>42</v>
       </c>
@@ -10292,8 +11836,16 @@
       <c r="S209">
         <v>415</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U209">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>43</v>
       </c>
@@ -10342,8 +11894,16 @@
       <c r="S210">
         <v>385</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U210">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <f t="shared" si="5"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>44</v>
       </c>
@@ -10392,8 +11952,16 @@
       <c r="S211">
         <v>215</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U211">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>45</v>
       </c>
@@ -10442,8 +12010,16 @@
       <c r="S212">
         <v>135</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -10492,8 +12068,16 @@
       <c r="S213">
         <v>215</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>47</v>
       </c>
@@ -10542,8 +12126,16 @@
       <c r="S214">
         <v>415</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>48</v>
       </c>
@@ -10592,8 +12184,16 @@
       <c r="S215">
         <v>415</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>49</v>
       </c>
@@ -10642,8 +12242,16 @@
       <c r="S216">
         <v>385</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <f t="shared" si="5"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>50</v>
       </c>
@@ -10692,8 +12300,16 @@
       <c r="S217">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -10742,8 +12358,16 @@
       <c r="S218">
         <v>135</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>33</v>
       </c>
@@ -10792,8 +12416,16 @@
       <c r="S219">
         <v>215</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <f t="shared" si="5"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>51</v>
       </c>
@@ -10842,8 +12474,16 @@
       <c r="S220">
         <v>415</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>52</v>
       </c>
@@ -10892,8 +12532,16 @@
       <c r="S221">
         <v>415</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U221">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <f t="shared" si="5"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>53</v>
       </c>
@@ -10942,8 +12590,16 @@
       <c r="S222">
         <v>385</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <f t="shared" si="5"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>54</v>
       </c>
@@ -10992,8 +12648,16 @@
       <c r="S223">
         <v>215</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U223">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <f t="shared" ref="W223:W253" si="7">S223*D223</f>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>39</v>
       </c>
@@ -11042,8 +12706,16 @@
       <c r="S224">
         <v>135</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U224">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <f t="shared" si="7"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>41</v>
       </c>
@@ -11092,8 +12764,16 @@
       <c r="S225">
         <v>215</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U225">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <f t="shared" si="7"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>31</v>
       </c>
@@ -11142,8 +12822,16 @@
       <c r="S226">
         <v>492</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -11192,8 +12880,16 @@
       <c r="S227">
         <v>492</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U227">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -11242,8 +12938,16 @@
       <c r="S228">
         <v>492</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U228">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -11292,8 +12996,16 @@
       <c r="S229">
         <v>492</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U229">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -11342,8 +13054,16 @@
       <c r="S230">
         <v>445</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U230">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <f t="shared" si="7"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>36</v>
       </c>
@@ -11392,8 +13112,16 @@
       <c r="S231">
         <v>235</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U231">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>37</v>
       </c>
@@ -11442,8 +13170,16 @@
       <c r="S232">
         <v>165</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U232">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <f t="shared" si="7"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>38</v>
       </c>
@@ -11492,8 +13228,16 @@
       <c r="S233">
         <v>235</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U233">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -11542,8 +13286,16 @@
       <c r="S234">
         <v>492</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U234">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -11592,8 +13344,16 @@
       <c r="S235">
         <v>492</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U235">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -11642,8 +13402,16 @@
       <c r="S236">
         <v>492</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U236">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -11692,8 +13460,16 @@
       <c r="S237">
         <v>492</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U237">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>43</v>
       </c>
@@ -11742,8 +13518,16 @@
       <c r="S238">
         <v>445</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U238">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <f t="shared" si="7"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -11792,8 +13576,16 @@
       <c r="S239">
         <v>235</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U239">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>45</v>
       </c>
@@ -11842,8 +13634,16 @@
       <c r="S240">
         <v>165</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U240">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <f t="shared" si="7"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>46</v>
       </c>
@@ -11892,8 +13692,16 @@
       <c r="S241">
         <v>235</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U241">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>47</v>
       </c>
@@ -11942,8 +13750,16 @@
       <c r="S242">
         <v>492</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U242">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>48</v>
       </c>
@@ -11992,8 +13808,16 @@
       <c r="S243">
         <v>492</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U243">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -12042,8 +13866,16 @@
       <c r="S244">
         <v>445</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U244">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W244">
+        <f t="shared" si="7"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>50</v>
       </c>
@@ -12092,8 +13924,16 @@
       <c r="S245">
         <v>235</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U245">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W245">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>31</v>
       </c>
@@ -12142,8 +13982,16 @@
       <c r="S246">
         <v>165</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U246">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W246">
+        <f t="shared" si="7"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>33</v>
       </c>
@@ -12192,8 +14040,16 @@
       <c r="S247">
         <v>235</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U247">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W247">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>51</v>
       </c>
@@ -12242,8 +14098,16 @@
       <c r="S248">
         <v>492</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U248">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>52</v>
       </c>
@@ -12292,8 +14156,16 @@
       <c r="S249">
         <v>492</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U249">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <f t="shared" si="7"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>53</v>
       </c>
@@ -12342,8 +14214,16 @@
       <c r="S250">
         <v>445</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U250">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <f t="shared" si="7"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>54</v>
       </c>
@@ -12392,8 +14272,16 @@
       <c r="S251">
         <v>235</v>
       </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U251">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -12442,8 +14330,16 @@
       <c r="S252">
         <v>165</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U252">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <f t="shared" si="7"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>41</v>
       </c>
@@ -12492,8 +14388,27 @@
       <c r="S253">
         <v>235</v>
       </c>
+      <c r="U253">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="U254">
+        <f>SUM(U2:U253)</f>
+        <v>621120</v>
+      </c>
+      <c r="W254">
+        <f>SUM(W2:W253)</f>
+        <v>984060</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S253" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
